--- a/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>PGRU</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,98 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>100700</v>
+        <v>23800</v>
       </c>
       <c r="E8" s="3">
-        <v>42900</v>
+        <v>20300</v>
       </c>
       <c r="F8" s="3">
-        <v>82100</v>
+        <v>72500</v>
       </c>
       <c r="G8" s="3">
-        <v>36400</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>30900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>59100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>26200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8200</v>
+        <v>-1000</v>
       </c>
       <c r="E14" s="3">
-        <v>2600</v>
+        <v>88400</v>
       </c>
       <c r="F14" s="3">
-        <v>3100</v>
+        <v>5900</v>
       </c>
       <c r="G14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14000</v>
+        <v>4300</v>
       </c>
       <c r="E15" s="3">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="F15" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="G15" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>3600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>149000</v>
+        <v>27400</v>
       </c>
       <c r="E17" s="3">
-        <v>58200</v>
+        <v>114200</v>
       </c>
       <c r="F17" s="3">
-        <v>94400</v>
+        <v>107300</v>
       </c>
       <c r="G17" s="3">
-        <v>38400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>41900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>19100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>68000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>27700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-48300</v>
+        <v>-3700</v>
       </c>
       <c r="E18" s="3">
-        <v>-15300</v>
+        <v>-93900</v>
       </c>
       <c r="F18" s="3">
-        <v>-12300</v>
+        <v>-34800</v>
       </c>
       <c r="G18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-11000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-139400</v>
+        <v>6400</v>
       </c>
       <c r="E20" s="3">
-        <v>-134900</v>
+        <v>7200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1600</v>
+        <v>-100400</v>
       </c>
       <c r="G20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-97100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-173700</v>
+        <v>7000</v>
       </c>
       <c r="E21" s="3">
-        <v>-145200</v>
+        <v>-83100</v>
       </c>
       <c r="F21" s="3">
-        <v>-4300</v>
+        <v>-125100</v>
       </c>
       <c r="G21" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-104600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-187700</v>
+        <v>2700</v>
       </c>
       <c r="E23" s="3">
-        <v>-150200</v>
+        <v>-86600</v>
       </c>
       <c r="F23" s="3">
-        <v>-13800</v>
+        <v>-135200</v>
       </c>
       <c r="G23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-108200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>600</v>
+        <v>-200</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-187400</v>
+        <v>2800</v>
       </c>
       <c r="E26" s="3">
-        <v>-150600</v>
+        <v>-86700</v>
       </c>
       <c r="F26" s="3">
-        <v>-14400</v>
+        <v>-135000</v>
       </c>
       <c r="G26" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-108400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-187400</v>
+        <v>2800</v>
       </c>
       <c r="E27" s="3">
-        <v>-150600</v>
+        <v>-86700</v>
       </c>
       <c r="F27" s="3">
-        <v>-14400</v>
+        <v>-135000</v>
       </c>
       <c r="G27" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-108400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>139400</v>
+        <v>-6400</v>
       </c>
       <c r="E32" s="3">
-        <v>134900</v>
+        <v>-7200</v>
       </c>
       <c r="F32" s="3">
-        <v>1600</v>
+        <v>100400</v>
       </c>
       <c r="G32" s="3">
-        <v>200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>97100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-187400</v>
+        <v>2800</v>
       </c>
       <c r="E33" s="3">
-        <v>-150600</v>
+        <v>-86700</v>
       </c>
       <c r="F33" s="3">
-        <v>-14400</v>
+        <v>-135000</v>
       </c>
       <c r="G33" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-108400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-187400</v>
+        <v>2800</v>
       </c>
       <c r="E35" s="3">
-        <v>-150600</v>
+        <v>-86700</v>
       </c>
       <c r="F35" s="3">
-        <v>-14400</v>
+        <v>-135000</v>
       </c>
       <c r="G35" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-108400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,22 +1705,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>70200</v>
+        <v>265500</v>
       </c>
       <c r="E41" s="3">
-        <v>77800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>266000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>50600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>56000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1561,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,37 +1771,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>12800</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,8 +1841,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1677,22 +1876,28 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>87900</v>
+        <v>279200</v>
       </c>
       <c r="E46" s="3">
-        <v>90600</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>277300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>63300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>65300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1706,22 +1911,28 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1735,22 +1946,28 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18700</v>
+        <v>11300</v>
       </c>
       <c r="E48" s="3">
-        <v>18700</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>12400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>13500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1764,22 +1981,28 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>401200</v>
+        <v>286100</v>
       </c>
       <c r="E49" s="3">
-        <v>145800</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>289100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>288900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>105000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1880,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,22 +2156,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>509400</v>
+        <v>579200</v>
       </c>
       <c r="E54" s="3">
-        <v>256500</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>581200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>366800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>184700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,22 +2225,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32900</v>
+        <v>31000</v>
       </c>
       <c r="E57" s="3">
-        <v>19900</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>34800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>23700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>14400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1993,22 +2256,28 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>15600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2022,22 +2291,28 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56300</v>
+        <v>42700</v>
       </c>
       <c r="E59" s="3">
-        <v>376300</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>47700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>37400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>268300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2051,22 +2326,28 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>89400</v>
+        <v>90000</v>
       </c>
       <c r="E60" s="3">
-        <v>396400</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>98000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>64400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>285400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2080,22 +2361,28 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16700</v>
+        <v>7400</v>
       </c>
       <c r="E61" s="3">
-        <v>16100</v>
+        <v>8300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>21700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2109,22 +2396,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="3">
-        <v>16200</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>2600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,22 +2536,28 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>122200</v>
+        <v>100000</v>
       </c>
       <c r="E66" s="3">
-        <v>428700</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>108900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>88000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>308700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2334,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>59300</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>42700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2354,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,22 +2726,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-299900</v>
+        <v>-301100</v>
       </c>
       <c r="E72" s="3">
-        <v>-269900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-304200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-216000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-194300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,22 +2866,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>387200</v>
+        <v>479200</v>
       </c>
       <c r="E76" s="3">
-        <v>-231500</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>472300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>278800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-166700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-187400</v>
+        <v>2800</v>
       </c>
       <c r="E81" s="3">
-        <v>-150600</v>
+        <v>-86700</v>
       </c>
       <c r="F81" s="3">
-        <v>-14400</v>
+        <v>-135000</v>
       </c>
       <c r="G81" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-108400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14000</v>
+        <v>4300</v>
       </c>
       <c r="E83" s="3">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="F83" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="G83" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>3600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2500</v>
+        <v>5200</v>
       </c>
       <c r="E89" s="3">
-        <v>-6800</v>
+        <v>-5300</v>
       </c>
       <c r="F89" s="3">
-        <v>2700</v>
+        <v>-1800</v>
       </c>
       <c r="G89" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-4900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10800</v>
+        <v>-4100</v>
       </c>
       <c r="E94" s="3">
-        <v>-5400</v>
+        <v>-3100</v>
       </c>
       <c r="F94" s="3">
-        <v>-22400</v>
+        <v>-7700</v>
       </c>
       <c r="G94" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-3900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-13400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9900</v>
+        <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3300</v>
+        <v>223800</v>
       </c>
       <c r="F100" s="3">
-        <v>88400</v>
+        <v>-7100</v>
       </c>
       <c r="G100" s="3">
-        <v>25900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-2400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>63700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>18700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-23100</v>
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
-        <v>-15500</v>
+        <v>215500</v>
       </c>
       <c r="F102" s="3">
-        <v>68700</v>
+        <v>-16700</v>
       </c>
       <c r="G102" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-11200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>49500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3500</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>23800</v>
+        <v>23900</v>
       </c>
       <c r="E8" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="F8" s="3">
-        <v>72500</v>
+        <v>72900</v>
       </c>
       <c r="G8" s="3">
-        <v>30900</v>
+        <v>31000</v>
       </c>
       <c r="H8" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="I8" s="3">
-        <v>59100</v>
+        <v>59400</v>
       </c>
       <c r="J8" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -919,7 +919,7 @@
         <v>-1000</v>
       </c>
       <c r="E14" s="3">
-        <v>88400</v>
+        <v>88900</v>
       </c>
       <c r="F14" s="3">
         <v>5900</v>
@@ -954,10 +954,10 @@
         <v>4300</v>
       </c>
       <c r="E15" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F15" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="G15" s="3">
         <v>3600</v>
@@ -969,7 +969,7 @@
         <v>6900</v>
       </c>
       <c r="J15" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="E17" s="3">
-        <v>114200</v>
+        <v>114700</v>
       </c>
       <c r="F17" s="3">
-        <v>107300</v>
+        <v>107900</v>
       </c>
       <c r="G17" s="3">
-        <v>41900</v>
+        <v>42100</v>
       </c>
       <c r="H17" s="3">
         <v>19100</v>
       </c>
       <c r="I17" s="3">
-        <v>68000</v>
+        <v>68300</v>
       </c>
       <c r="J17" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1036,19 +1036,19 @@
         <v>-3700</v>
       </c>
       <c r="E18" s="3">
-        <v>-93900</v>
+        <v>-94300</v>
       </c>
       <c r="F18" s="3">
-        <v>-34800</v>
+        <v>-35000</v>
       </c>
       <c r="G18" s="3">
-        <v>-11000</v>
+        <v>-11100</v>
       </c>
       <c r="H18" s="3">
         <v>-4700</v>
       </c>
       <c r="I18" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="J18" s="3">
         <v>-1500</v>
@@ -1086,13 +1086,13 @@
         <v>6400</v>
       </c>
       <c r="E20" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F20" s="3">
-        <v>-100400</v>
+        <v>-100900</v>
       </c>
       <c r="G20" s="3">
-        <v>-97100</v>
+        <v>-97600</v>
       </c>
       <c r="H20" s="3">
         <v>-3000</v>
@@ -1121,16 +1121,16 @@
         <v>7000</v>
       </c>
       <c r="E21" s="3">
-        <v>-83100</v>
+        <v>-83500</v>
       </c>
       <c r="F21" s="3">
-        <v>-125100</v>
+        <v>-125700</v>
       </c>
       <c r="G21" s="3">
-        <v>-104600</v>
+        <v>-105100</v>
       </c>
       <c r="H21" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="I21" s="3">
         <v>-3100</v>
@@ -1191,13 +1191,13 @@
         <v>2700</v>
       </c>
       <c r="E23" s="3">
-        <v>-86600</v>
+        <v>-87000</v>
       </c>
       <c r="F23" s="3">
-        <v>-135200</v>
+        <v>-135900</v>
       </c>
       <c r="G23" s="3">
-        <v>-108200</v>
+        <v>-108700</v>
       </c>
       <c r="H23" s="3">
         <v>-7700</v>
@@ -1296,13 +1296,13 @@
         <v>2800</v>
       </c>
       <c r="E26" s="3">
-        <v>-86700</v>
+        <v>-87100</v>
       </c>
       <c r="F26" s="3">
-        <v>-135000</v>
+        <v>-135600</v>
       </c>
       <c r="G26" s="3">
-        <v>-108400</v>
+        <v>-109000</v>
       </c>
       <c r="H26" s="3">
         <v>-7800</v>
@@ -1331,13 +1331,13 @@
         <v>2800</v>
       </c>
       <c r="E27" s="3">
-        <v>-86700</v>
+        <v>-87100</v>
       </c>
       <c r="F27" s="3">
-        <v>-135000</v>
+        <v>-135600</v>
       </c>
       <c r="G27" s="3">
-        <v>-108400</v>
+        <v>-109000</v>
       </c>
       <c r="H27" s="3">
         <v>-7800</v>
@@ -1506,13 +1506,13 @@
         <v>-6400</v>
       </c>
       <c r="E32" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="F32" s="3">
-        <v>100400</v>
+        <v>100900</v>
       </c>
       <c r="G32" s="3">
-        <v>97100</v>
+        <v>97600</v>
       </c>
       <c r="H32" s="3">
         <v>3000</v>
@@ -1541,13 +1541,13 @@
         <v>2800</v>
       </c>
       <c r="E33" s="3">
-        <v>-86700</v>
+        <v>-87100</v>
       </c>
       <c r="F33" s="3">
-        <v>-135000</v>
+        <v>-135600</v>
       </c>
       <c r="G33" s="3">
-        <v>-108400</v>
+        <v>-109000</v>
       </c>
       <c r="H33" s="3">
         <v>-7800</v>
@@ -1611,13 +1611,13 @@
         <v>2800</v>
       </c>
       <c r="E35" s="3">
-        <v>-86700</v>
+        <v>-87100</v>
       </c>
       <c r="F35" s="3">
-        <v>-135000</v>
+        <v>-135600</v>
       </c>
       <c r="G35" s="3">
-        <v>-108400</v>
+        <v>-109000</v>
       </c>
       <c r="H35" s="3">
         <v>-7800</v>
@@ -1713,16 +1713,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>265500</v>
+        <v>266900</v>
       </c>
       <c r="E41" s="3">
-        <v>266000</v>
+        <v>267400</v>
       </c>
       <c r="F41" s="3">
-        <v>50600</v>
+        <v>50800</v>
       </c>
       <c r="G41" s="3">
-        <v>56000</v>
+        <v>56300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1888,16 +1888,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>279200</v>
+        <v>280600</v>
       </c>
       <c r="E46" s="3">
-        <v>277300</v>
+        <v>278600</v>
       </c>
       <c r="F46" s="3">
-        <v>63300</v>
+        <v>63600</v>
       </c>
       <c r="G46" s="3">
-        <v>65300</v>
+        <v>65600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1923,10 +1923,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E47" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F47" s="3">
         <v>1100</v>
@@ -1958,16 +1958,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="E48" s="3">
         <v>12400</v>
       </c>
       <c r="F48" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="G48" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1993,16 +1993,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>286100</v>
+        <v>287500</v>
       </c>
       <c r="E49" s="3">
-        <v>289100</v>
+        <v>290500</v>
       </c>
       <c r="F49" s="3">
-        <v>288900</v>
+        <v>290300</v>
       </c>
       <c r="G49" s="3">
-        <v>105000</v>
+        <v>105500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2168,16 +2168,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>579200</v>
+        <v>582000</v>
       </c>
       <c r="E54" s="3">
-        <v>581200</v>
+        <v>584100</v>
       </c>
       <c r="F54" s="3">
-        <v>366800</v>
+        <v>368600</v>
       </c>
       <c r="G54" s="3">
-        <v>184700</v>
+        <v>185600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2233,13 +2233,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31000</v>
+        <v>31200</v>
       </c>
       <c r="E57" s="3">
-        <v>34800</v>
+        <v>34900</v>
       </c>
       <c r="F57" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="G57" s="3">
         <v>14400</v>
@@ -2268,7 +2268,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="E58" s="3">
         <v>15600</v>
@@ -2303,16 +2303,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42700</v>
+        <v>42900</v>
       </c>
       <c r="E59" s="3">
-        <v>47700</v>
+        <v>47900</v>
       </c>
       <c r="F59" s="3">
-        <v>37400</v>
+        <v>37600</v>
       </c>
       <c r="G59" s="3">
-        <v>268300</v>
+        <v>269700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2338,16 +2338,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>90000</v>
+        <v>90400</v>
       </c>
       <c r="E60" s="3">
-        <v>98000</v>
+        <v>98500</v>
       </c>
       <c r="F60" s="3">
-        <v>64400</v>
+        <v>64700</v>
       </c>
       <c r="G60" s="3">
-        <v>285400</v>
+        <v>286800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2373,16 +2373,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E61" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="F61" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="G61" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2548,16 +2548,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100000</v>
+        <v>100400</v>
       </c>
       <c r="E66" s="3">
-        <v>108900</v>
+        <v>109400</v>
       </c>
       <c r="F66" s="3">
-        <v>88000</v>
+        <v>88400</v>
       </c>
       <c r="G66" s="3">
-        <v>308700</v>
+        <v>310200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>42700</v>
+        <v>42900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2738,16 +2738,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-301100</v>
+        <v>-302600</v>
       </c>
       <c r="E72" s="3">
-        <v>-304200</v>
+        <v>-305700</v>
       </c>
       <c r="F72" s="3">
-        <v>-216000</v>
+        <v>-217000</v>
       </c>
       <c r="G72" s="3">
-        <v>-194300</v>
+        <v>-195300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2878,16 +2878,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>479200</v>
+        <v>481600</v>
       </c>
       <c r="E76" s="3">
-        <v>472300</v>
+        <v>474600</v>
       </c>
       <c r="F76" s="3">
-        <v>278800</v>
+        <v>280200</v>
       </c>
       <c r="G76" s="3">
-        <v>-166700</v>
+        <v>-167500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2991,13 +2991,13 @@
         <v>2800</v>
       </c>
       <c r="E81" s="3">
-        <v>-86700</v>
+        <v>-87100</v>
       </c>
       <c r="F81" s="3">
-        <v>-135000</v>
+        <v>-135600</v>
       </c>
       <c r="G81" s="3">
-        <v>-108400</v>
+        <v>-109000</v>
       </c>
       <c r="H81" s="3">
         <v>-7800</v>
@@ -3041,10 +3041,10 @@
         <v>4300</v>
       </c>
       <c r="E83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F83" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="G83" s="3">
         <v>3600</v>
@@ -3056,7 +3056,7 @@
         <v>6900</v>
       </c>
       <c r="J83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3260,7 +3260,7 @@
         <v>-4900</v>
       </c>
       <c r="H89" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="I89" s="3">
         <v>1900</v>
@@ -3403,13 +3403,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="E94" s="3">
         <v>-3100</v>
       </c>
       <c r="F94" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="G94" s="3">
         <v>-3900</v>
@@ -3418,10 +3418,10 @@
         <v>-1700</v>
       </c>
       <c r="I94" s="3">
-        <v>-16100</v>
+        <v>-16200</v>
       </c>
       <c r="J94" s="3">
-        <v>-13400</v>
+        <v>-13500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3596,10 +3596,10 @@
         <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>223800</v>
+        <v>224900</v>
       </c>
       <c r="F100" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="G100" s="3">
         <v>-2400</v>
@@ -3608,10 +3608,10 @@
         <v>-1500</v>
       </c>
       <c r="I100" s="3">
-        <v>63700</v>
+        <v>64000</v>
       </c>
       <c r="J100" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3666,7 +3666,7 @@
         <v>-500</v>
       </c>
       <c r="E102" s="3">
-        <v>215500</v>
+        <v>216500</v>
       </c>
       <c r="F102" s="3">
         <v>-16700</v>
@@ -3675,10 +3675,10 @@
         <v>-11200</v>
       </c>
       <c r="H102" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="I102" s="3">
-        <v>49500</v>
+        <v>49700</v>
       </c>
       <c r="J102" s="3">
         <v>3500</v>

--- a/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>PGRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,105 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>23900</v>
+        <v>25600</v>
       </c>
       <c r="E8" s="3">
-        <v>20400</v>
+        <v>24400</v>
       </c>
       <c r="F8" s="3">
-        <v>72900</v>
+        <v>20800</v>
       </c>
       <c r="G8" s="3">
-        <v>31000</v>
+        <v>74400</v>
       </c>
       <c r="H8" s="3">
-        <v>14400</v>
+        <v>31700</v>
       </c>
       <c r="I8" s="3">
-        <v>59400</v>
+        <v>14700</v>
       </c>
       <c r="J8" s="3">
+        <v>60700</v>
+      </c>
+      <c r="K8" s="3">
         <v>26300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,78 +927,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>88900</v>
+        <v>-1100</v>
       </c>
       <c r="F14" s="3">
-        <v>5900</v>
+        <v>90800</v>
       </c>
       <c r="G14" s="3">
-        <v>1800</v>
+        <v>6100</v>
       </c>
       <c r="H14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3">
-        <v>2200</v>
-      </c>
       <c r="J14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="E15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F15" s="3">
         <v>3600</v>
       </c>
-      <c r="F15" s="3">
-        <v>10200</v>
-      </c>
       <c r="G15" s="3">
-        <v>3600</v>
+        <v>10400</v>
       </c>
       <c r="H15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I15" s="3">
         <v>1800</v>
       </c>
-      <c r="I15" s="3">
-        <v>6900</v>
-      </c>
       <c r="J15" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="E17" s="3">
-        <v>114700</v>
+        <v>28200</v>
       </c>
       <c r="F17" s="3">
-        <v>107900</v>
+        <v>117200</v>
       </c>
       <c r="G17" s="3">
-        <v>42100</v>
+        <v>110200</v>
       </c>
       <c r="H17" s="3">
-        <v>19100</v>
+        <v>43000</v>
       </c>
       <c r="I17" s="3">
-        <v>68300</v>
+        <v>19600</v>
       </c>
       <c r="J17" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K17" s="3">
         <v>27800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3700</v>
+        <v>-2200</v>
       </c>
       <c r="E18" s="3">
-        <v>-94300</v>
+        <v>-3800</v>
       </c>
       <c r="F18" s="3">
-        <v>-35000</v>
+        <v>-96300</v>
       </c>
       <c r="G18" s="3">
-        <v>-11100</v>
+        <v>-35700</v>
       </c>
       <c r="H18" s="3">
-        <v>-4700</v>
+        <v>-11300</v>
       </c>
       <c r="I18" s="3">
-        <v>-8900</v>
+        <v>-4800</v>
       </c>
       <c r="J18" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6400</v>
+        <v>-2900</v>
       </c>
       <c r="E20" s="3">
-        <v>7300</v>
+        <v>6600</v>
       </c>
       <c r="F20" s="3">
-        <v>-100900</v>
+        <v>7400</v>
       </c>
       <c r="G20" s="3">
-        <v>-97600</v>
+        <v>-103000</v>
       </c>
       <c r="H20" s="3">
-        <v>-3000</v>
+        <v>-99700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1100</v>
+        <v>-3100</v>
       </c>
       <c r="J20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7000</v>
+        <v>-1500</v>
       </c>
       <c r="E21" s="3">
-        <v>-83500</v>
+        <v>7200</v>
       </c>
       <c r="F21" s="3">
-        <v>-125700</v>
+        <v>-85300</v>
       </c>
       <c r="G21" s="3">
-        <v>-105100</v>
+        <v>-128400</v>
       </c>
       <c r="H21" s="3">
-        <v>-6000</v>
+        <v>-107300</v>
       </c>
       <c r="I21" s="3">
-        <v>-3100</v>
+        <v>-6100</v>
       </c>
       <c r="J21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2700</v>
+        <v>-5100</v>
       </c>
       <c r="E23" s="3">
-        <v>-87000</v>
+        <v>2800</v>
       </c>
       <c r="F23" s="3">
-        <v>-135900</v>
+        <v>-88900</v>
       </c>
       <c r="G23" s="3">
-        <v>-108700</v>
+        <v>-138800</v>
       </c>
       <c r="H23" s="3">
-        <v>-7700</v>
+        <v>-111000</v>
       </c>
       <c r="I23" s="3">
-        <v>-10000</v>
+        <v>-7900</v>
       </c>
       <c r="J23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>200</v>
-      </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-87100</v>
-      </c>
       <c r="F26" s="3">
-        <v>-135600</v>
+        <v>-88900</v>
       </c>
       <c r="G26" s="3">
-        <v>-109000</v>
+        <v>-138500</v>
       </c>
       <c r="H26" s="3">
-        <v>-7800</v>
+        <v>-111300</v>
       </c>
       <c r="I26" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J26" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>2800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-87100</v>
-      </c>
       <c r="F27" s="3">
-        <v>-135600</v>
+        <v>-88900</v>
       </c>
       <c r="G27" s="3">
-        <v>-109000</v>
+        <v>-138500</v>
       </c>
       <c r="H27" s="3">
-        <v>-7800</v>
+        <v>-111300</v>
       </c>
       <c r="I27" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J27" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6400</v>
+        <v>2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-7300</v>
+        <v>-6600</v>
       </c>
       <c r="F32" s="3">
-        <v>100900</v>
+        <v>-7400</v>
       </c>
       <c r="G32" s="3">
-        <v>97600</v>
+        <v>103000</v>
       </c>
       <c r="H32" s="3">
-        <v>3000</v>
+        <v>99700</v>
       </c>
       <c r="I32" s="3">
-        <v>1100</v>
+        <v>3100</v>
       </c>
       <c r="J32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>2800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-87100</v>
-      </c>
       <c r="F33" s="3">
-        <v>-135600</v>
+        <v>-88900</v>
       </c>
       <c r="G33" s="3">
-        <v>-109000</v>
+        <v>-138500</v>
       </c>
       <c r="H33" s="3">
-        <v>-7800</v>
+        <v>-111300</v>
       </c>
       <c r="I33" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J33" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>2800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-87100</v>
-      </c>
       <c r="F35" s="3">
-        <v>-135600</v>
+        <v>-88900</v>
       </c>
       <c r="G35" s="3">
-        <v>-109000</v>
+        <v>-138500</v>
       </c>
       <c r="H35" s="3">
-        <v>-7800</v>
+        <v>-111300</v>
       </c>
       <c r="I35" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J35" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,22 +1793,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>266900</v>
+        <v>251000</v>
       </c>
       <c r="E41" s="3">
-        <v>267400</v>
+        <v>272600</v>
       </c>
       <c r="F41" s="3">
-        <v>50800</v>
+        <v>273100</v>
       </c>
       <c r="G41" s="3">
-        <v>56300</v>
+        <v>51900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1803,8 +1896,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,22 +1981,25 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>280600</v>
+        <v>263400</v>
       </c>
       <c r="E46" s="3">
-        <v>278600</v>
+        <v>286600</v>
       </c>
       <c r="F46" s="3">
-        <v>63600</v>
+        <v>284600</v>
       </c>
       <c r="G46" s="3">
-        <v>65600</v>
+        <v>65000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1917,22 +2019,25 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
         <v>2600</v>
       </c>
       <c r="F47" s="3">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="G47" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1952,22 +2057,25 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="E48" s="3">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="F48" s="3">
-        <v>13600</v>
+        <v>12700</v>
       </c>
       <c r="G48" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1987,22 +2095,25 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>287500</v>
+        <v>294800</v>
       </c>
       <c r="E49" s="3">
-        <v>290500</v>
+        <v>293600</v>
       </c>
       <c r="F49" s="3">
-        <v>290300</v>
+        <v>296700</v>
       </c>
       <c r="G49" s="3">
-        <v>105500</v>
+        <v>296500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,22 +2285,25 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>582000</v>
+        <v>571700</v>
       </c>
       <c r="E54" s="3">
-        <v>584100</v>
+        <v>594500</v>
       </c>
       <c r="F54" s="3">
-        <v>368600</v>
+        <v>596600</v>
       </c>
       <c r="G54" s="3">
-        <v>185600</v>
+        <v>376500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,22 +2357,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31200</v>
+        <v>18600</v>
       </c>
       <c r="E57" s="3">
-        <v>34900</v>
+        <v>31800</v>
       </c>
       <c r="F57" s="3">
-        <v>23800</v>
+        <v>35700</v>
       </c>
       <c r="G57" s="3">
-        <v>14400</v>
+        <v>24300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2262,22 +2393,25 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16300</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
-        <v>15600</v>
+        <v>16700</v>
       </c>
       <c r="F58" s="3">
-        <v>3300</v>
+        <v>16000</v>
       </c>
       <c r="G58" s="3">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2297,22 +2431,25 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42900</v>
+        <v>47700</v>
       </c>
       <c r="E59" s="3">
-        <v>47900</v>
+        <v>43900</v>
       </c>
       <c r="F59" s="3">
-        <v>37600</v>
+        <v>48900</v>
       </c>
       <c r="G59" s="3">
-        <v>269700</v>
+        <v>38400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2469,25 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>90400</v>
+        <v>69400</v>
       </c>
       <c r="E60" s="3">
-        <v>98500</v>
+        <v>92400</v>
       </c>
       <c r="F60" s="3">
-        <v>64700</v>
+        <v>100600</v>
       </c>
       <c r="G60" s="3">
-        <v>286800</v>
+        <v>66100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2367,22 +2507,25 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="E61" s="3">
-        <v>8400</v>
+        <v>7600</v>
       </c>
       <c r="F61" s="3">
-        <v>21100</v>
+        <v>8500</v>
       </c>
       <c r="G61" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2402,23 +2545,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="3">
         <v>2600</v>
       </c>
       <c r="F62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
-        <v>1600</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,22 +2697,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100400</v>
+        <v>78300</v>
       </c>
       <c r="E66" s="3">
-        <v>109400</v>
+        <v>102600</v>
       </c>
       <c r="F66" s="3">
-        <v>88400</v>
+        <v>111800</v>
       </c>
       <c r="G66" s="3">
-        <v>310200</v>
+        <v>90300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2677,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>42900</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,22 +2903,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-302600</v>
+        <v>-313900</v>
       </c>
       <c r="E72" s="3">
-        <v>-305700</v>
+        <v>-309100</v>
       </c>
       <c r="F72" s="3">
-        <v>-217000</v>
+        <v>-312200</v>
       </c>
       <c r="G72" s="3">
-        <v>-195300</v>
+        <v>-221700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,22 +3055,25 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>481600</v>
+        <v>493400</v>
       </c>
       <c r="E76" s="3">
-        <v>474600</v>
+        <v>491900</v>
       </c>
       <c r="F76" s="3">
-        <v>280200</v>
+        <v>484800</v>
       </c>
       <c r="G76" s="3">
-        <v>-167500</v>
+        <v>286200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>2800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-87100</v>
-      </c>
       <c r="F81" s="3">
-        <v>-135600</v>
+        <v>-88900</v>
       </c>
       <c r="G81" s="3">
-        <v>-109000</v>
+        <v>-138500</v>
       </c>
       <c r="H81" s="3">
-        <v>-7800</v>
+        <v>-111300</v>
       </c>
       <c r="I81" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J81" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
-        <v>10200</v>
-      </c>
       <c r="G83" s="3">
-        <v>3600</v>
+        <v>10400</v>
       </c>
       <c r="H83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1800</v>
       </c>
-      <c r="I83" s="3">
-        <v>6900</v>
-      </c>
       <c r="J83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5200</v>
+        <v>-4300</v>
       </c>
       <c r="E89" s="3">
-        <v>-5300</v>
+        <v>5300</v>
       </c>
       <c r="F89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
-        <v>1900</v>
-      </c>
       <c r="J89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-7800</v>
-      </c>
       <c r="G94" s="3">
-        <v>-3900</v>
+        <v>-7900</v>
       </c>
       <c r="H94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
-        <v>-16200</v>
-      </c>
       <c r="J94" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
-        <v>224900</v>
-      </c>
       <c r="F100" s="3">
-        <v>-7200</v>
+        <v>229700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2400</v>
+        <v>-7300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1500</v>
+        <v>-2500</v>
       </c>
       <c r="I100" s="3">
-        <v>64000</v>
+        <v>-1600</v>
       </c>
       <c r="J100" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K100" s="3">
         <v>18800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
-        <v>216500</v>
-      </c>
       <c r="F102" s="3">
-        <v>-16700</v>
+        <v>221200</v>
       </c>
       <c r="G102" s="3">
-        <v>-11200</v>
+        <v>-17100</v>
       </c>
       <c r="H102" s="3">
-        <v>-6800</v>
+        <v>-11500</v>
       </c>
       <c r="I102" s="3">
-        <v>49700</v>
+        <v>-6900</v>
       </c>
       <c r="J102" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K102" s="3">
         <v>3500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>PGRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,111 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>25600</v>
+        <v>29800</v>
       </c>
       <c r="E8" s="3">
-        <v>24400</v>
+        <v>25700</v>
       </c>
       <c r="F8" s="3">
-        <v>20800</v>
+        <v>24500</v>
       </c>
       <c r="G8" s="3">
-        <v>74400</v>
+        <v>20900</v>
       </c>
       <c r="H8" s="3">
-        <v>31700</v>
+        <v>74700</v>
       </c>
       <c r="I8" s="3">
-        <v>14700</v>
+        <v>31800</v>
       </c>
       <c r="J8" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K8" s="3">
         <v>60700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,84 +946,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>90800</v>
-      </c>
       <c r="G14" s="3">
+        <v>91100</v>
+      </c>
+      <c r="H14" s="3">
         <v>6100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27700</v>
+        <v>31300</v>
       </c>
       <c r="E17" s="3">
-        <v>28200</v>
+        <v>27800</v>
       </c>
       <c r="F17" s="3">
-        <v>117200</v>
+        <v>28300</v>
       </c>
       <c r="G17" s="3">
-        <v>110200</v>
+        <v>117700</v>
       </c>
       <c r="H17" s="3">
-        <v>43000</v>
+        <v>110600</v>
       </c>
       <c r="I17" s="3">
+        <v>43200</v>
+      </c>
+      <c r="J17" s="3">
         <v>19600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>69700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-96300</v>
-      </c>
       <c r="G18" s="3">
-        <v>-35700</v>
+        <v>-96700</v>
       </c>
       <c r="H18" s="3">
-        <v>-11300</v>
+        <v>-35900</v>
       </c>
       <c r="I18" s="3">
-        <v>-4800</v>
+        <v>-11400</v>
       </c>
       <c r="J18" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2900</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>6600</v>
       </c>
-      <c r="F20" s="3">
-        <v>7400</v>
-      </c>
       <c r="G20" s="3">
-        <v>-103000</v>
+        <v>7500</v>
       </c>
       <c r="H20" s="3">
-        <v>-99700</v>
+        <v>-103500</v>
       </c>
       <c r="I20" s="3">
+        <v>-100100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-85300</v>
-      </c>
       <c r="G21" s="3">
-        <v>-128400</v>
+        <v>-85600</v>
       </c>
       <c r="H21" s="3">
-        <v>-107300</v>
+        <v>-128900</v>
       </c>
       <c r="I21" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-88900</v>
-      </c>
       <c r="G23" s="3">
-        <v>-138800</v>
+        <v>-89300</v>
       </c>
       <c r="H23" s="3">
-        <v>-111000</v>
+        <v>-139300</v>
       </c>
       <c r="I23" s="3">
+        <v>-111500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1272,37 +1317,40 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-88900</v>
-      </c>
       <c r="G26" s="3">
-        <v>-138500</v>
+        <v>-89300</v>
       </c>
       <c r="H26" s="3">
-        <v>-111300</v>
+        <v>-139100</v>
       </c>
       <c r="I26" s="3">
+        <v>-111700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-88900</v>
-      </c>
       <c r="G27" s="3">
-        <v>-138500</v>
+        <v>-89300</v>
       </c>
       <c r="H27" s="3">
-        <v>-111300</v>
+        <v>-139100</v>
       </c>
       <c r="I27" s="3">
+        <v>-111700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7400</v>
-      </c>
       <c r="G32" s="3">
-        <v>103000</v>
+        <v>-7500</v>
       </c>
       <c r="H32" s="3">
-        <v>99700</v>
+        <v>103500</v>
       </c>
       <c r="I32" s="3">
+        <v>100100</v>
+      </c>
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-88900</v>
-      </c>
       <c r="G33" s="3">
-        <v>-138500</v>
+        <v>-89300</v>
       </c>
       <c r="H33" s="3">
-        <v>-111300</v>
+        <v>-139100</v>
       </c>
       <c r="I33" s="3">
+        <v>-111700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-88900</v>
-      </c>
       <c r="G35" s="3">
-        <v>-138500</v>
+        <v>-89300</v>
       </c>
       <c r="H35" s="3">
-        <v>-111300</v>
+        <v>-139100</v>
       </c>
       <c r="I35" s="3">
+        <v>-111700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,28 +1879,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>251000</v>
+        <v>229500</v>
       </c>
       <c r="E41" s="3">
-        <v>272600</v>
+        <v>252100</v>
       </c>
       <c r="F41" s="3">
-        <v>273100</v>
+        <v>273700</v>
       </c>
       <c r="G41" s="3">
-        <v>51900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>274200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>52100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>57800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1899,8 +1991,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,28 +2082,31 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>263400</v>
+        <v>243000</v>
       </c>
       <c r="E46" s="3">
-        <v>286600</v>
+        <v>264500</v>
       </c>
       <c r="F46" s="3">
-        <v>284600</v>
+        <v>287800</v>
       </c>
       <c r="G46" s="3">
-        <v>65000</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>285800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>65200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>67300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2022,28 +2123,31 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E47" s="3">
         <v>2500</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2600</v>
       </c>
       <c r="F47" s="3">
         <v>2600</v>
       </c>
       <c r="G47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>1000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2060,28 +2164,31 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E48" s="3">
         <v>11000</v>
       </c>
-      <c r="E48" s="3">
-        <v>11600</v>
-      </c>
       <c r="F48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G48" s="3">
         <v>12700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>13900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2098,28 +2205,31 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>294800</v>
+        <v>292000</v>
       </c>
       <c r="E49" s="3">
-        <v>293600</v>
+        <v>296000</v>
       </c>
       <c r="F49" s="3">
-        <v>296700</v>
+        <v>294900</v>
       </c>
       <c r="G49" s="3">
-        <v>296500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>297900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>297700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>108200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,28 +2410,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>571700</v>
+        <v>548800</v>
       </c>
       <c r="E54" s="3">
-        <v>594500</v>
+        <v>574000</v>
       </c>
       <c r="F54" s="3">
-        <v>596600</v>
+        <v>597000</v>
       </c>
       <c r="G54" s="3">
-        <v>376500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>599000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>378000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>190400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,28 +2487,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E57" s="3">
         <v>18600</v>
       </c>
-      <c r="E57" s="3">
-        <v>31800</v>
-      </c>
       <c r="F57" s="3">
-        <v>35700</v>
+        <v>32000</v>
       </c>
       <c r="G57" s="3">
-        <v>24300</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>35800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>24400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>14800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2396,28 +2526,31 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>2800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2434,28 +2567,31 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47700</v>
+        <v>41100</v>
       </c>
       <c r="E59" s="3">
-        <v>43900</v>
+        <v>47900</v>
       </c>
       <c r="F59" s="3">
-        <v>48900</v>
+        <v>44000</v>
       </c>
       <c r="G59" s="3">
-        <v>38400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>49100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>38500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>276600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2472,28 +2608,31 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>69400</v>
+        <v>66200</v>
       </c>
       <c r="E60" s="3">
-        <v>92400</v>
+        <v>69700</v>
       </c>
       <c r="F60" s="3">
-        <v>100600</v>
+        <v>92700</v>
       </c>
       <c r="G60" s="3">
-        <v>66100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>101000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>66400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>294200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2510,28 +2649,31 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E61" s="3">
         <v>6900</v>
       </c>
-      <c r="E61" s="3">
-        <v>7600</v>
-      </c>
       <c r="F61" s="3">
-        <v>8500</v>
+        <v>7700</v>
       </c>
       <c r="G61" s="3">
-        <v>21600</v>
+        <v>8600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>21700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>22300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2548,28 +2690,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>1600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,28 +2854,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78300</v>
+        <v>78000</v>
       </c>
       <c r="E66" s="3">
-        <v>102600</v>
+        <v>78600</v>
       </c>
       <c r="F66" s="3">
-        <v>111800</v>
+        <v>103000</v>
       </c>
       <c r="G66" s="3">
-        <v>90300</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>112200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>90700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>318100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2851,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,28 +3076,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-313900</v>
+        <v>-319200</v>
       </c>
       <c r="E72" s="3">
-        <v>-309100</v>
+        <v>-315200</v>
       </c>
       <c r="F72" s="3">
-        <v>-312200</v>
+        <v>-310400</v>
       </c>
       <c r="G72" s="3">
-        <v>-221700</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-313500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-222600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-200300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,28 +3240,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>493400</v>
+        <v>470700</v>
       </c>
       <c r="E76" s="3">
-        <v>491900</v>
+        <v>495400</v>
       </c>
       <c r="F76" s="3">
-        <v>484800</v>
+        <v>493900</v>
       </c>
       <c r="G76" s="3">
-        <v>286200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>486800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>287400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-171800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3096,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-88900</v>
-      </c>
       <c r="G81" s="3">
-        <v>-138500</v>
+        <v>-89300</v>
       </c>
       <c r="H81" s="3">
-        <v>-111300</v>
+        <v>-139100</v>
       </c>
       <c r="I81" s="3">
+        <v>-111700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-5400</v>
-      </c>
       <c r="G89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4900</v>
+        <v>-6800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4200</v>
+        <v>-5000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3100</v>
+        <v>-4300</v>
       </c>
       <c r="G94" s="3">
-        <v>-7900</v>
+        <v>-3200</v>
       </c>
       <c r="H94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
-        <v>229700</v>
-      </c>
       <c r="G100" s="3">
-        <v>-7300</v>
+        <v>230700</v>
       </c>
       <c r="H100" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>65400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-21500</v>
+        <v>-22600</v>
       </c>
       <c r="E102" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
-        <v>221200</v>
-      </c>
       <c r="G102" s="3">
-        <v>-17100</v>
+        <v>222100</v>
       </c>
       <c r="H102" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-11500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>50800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>PGRU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,125 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>29800</v>
+        <v>27300</v>
       </c>
       <c r="E8" s="3">
-        <v>25700</v>
+        <v>24100</v>
       </c>
       <c r="F8" s="3">
-        <v>24500</v>
+        <v>29700</v>
       </c>
       <c r="G8" s="3">
+        <v>25600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>24400</v>
+      </c>
+      <c r="I8" s="3">
         <v>20900</v>
       </c>
-      <c r="H8" s="3">
-        <v>74700</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K8" s="3">
         <v>31800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>60700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>26300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,90 +983,108 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>91100</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>90900</v>
+      </c>
+      <c r="J14" s="3">
         <v>6100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F15" s="3">
         <v>4000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4400</v>
       </c>
       <c r="G15" s="3">
         <v>3600</v>
       </c>
       <c r="H15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J15" s="3">
         <v>10400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>7100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31300</v>
+        <v>34000</v>
       </c>
       <c r="E17" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>31200</v>
+      </c>
+      <c r="G17" s="3">
         <v>27800</v>
       </c>
-      <c r="F17" s="3">
-        <v>28300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>117700</v>
-      </c>
       <c r="H17" s="3">
-        <v>110600</v>
+        <v>28200</v>
       </c>
       <c r="I17" s="3">
+        <v>117300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K17" s="3">
         <v>43200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>19600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>69700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>27800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-96700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-35900</v>
-      </c>
       <c r="I18" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>6600</v>
       </c>
-      <c r="G20" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-103500</v>
-      </c>
       <c r="I20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-103200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>7200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-85600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-128900</v>
-      </c>
       <c r="I21" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-107800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1347,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-89300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-139300</v>
-      </c>
       <c r="I23" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-111500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>400</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>100</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-89300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-139100</v>
-      </c>
       <c r="I26" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-138700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-111700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-89300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-139100</v>
-      </c>
       <c r="I27" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-138700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-111700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-6600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>103500</v>
-      </c>
       <c r="I32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K32" s="3">
         <v>100100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-89300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-139100</v>
-      </c>
       <c r="I33" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-138700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-111700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-89300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-139100</v>
-      </c>
       <c r="I35" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-138700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-111700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +2052,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>229500</v>
+        <v>223400</v>
       </c>
       <c r="E41" s="3">
-        <v>252100</v>
+        <v>217900</v>
       </c>
       <c r="F41" s="3">
-        <v>273700</v>
+        <v>228900</v>
       </c>
       <c r="G41" s="3">
-        <v>274200</v>
+        <v>251400</v>
       </c>
       <c r="H41" s="3">
-        <v>52100</v>
+        <v>272900</v>
       </c>
       <c r="I41" s="3">
+        <v>273400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K41" s="3">
         <v>57800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2095,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2142,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1994,17 +2180,23 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,35 +2283,41 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>243000</v>
+        <v>236200</v>
       </c>
       <c r="E46" s="3">
-        <v>264500</v>
+        <v>231200</v>
       </c>
       <c r="F46" s="3">
-        <v>287800</v>
+        <v>242300</v>
       </c>
       <c r="G46" s="3">
-        <v>285800</v>
+        <v>263800</v>
       </c>
       <c r="H46" s="3">
-        <v>65200</v>
+        <v>287000</v>
       </c>
       <c r="I46" s="3">
+        <v>285000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K46" s="3">
         <v>67300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,35 +2330,41 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F47" s="3">
         <v>3400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2167,35 +2377,41 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F48" s="3">
         <v>10400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>11000</v>
       </c>
-      <c r="F48" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I48" s="3">
         <v>12700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>13900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>13900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,35 +2424,41 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>292000</v>
+        <v>282300</v>
       </c>
       <c r="E49" s="3">
-        <v>296000</v>
+        <v>290400</v>
       </c>
       <c r="F49" s="3">
-        <v>294900</v>
+        <v>291200</v>
       </c>
       <c r="G49" s="3">
-        <v>297900</v>
+        <v>295200</v>
       </c>
       <c r="H49" s="3">
-        <v>297700</v>
+        <v>294100</v>
       </c>
       <c r="I49" s="3">
+        <v>297100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>296900</v>
+      </c>
+      <c r="K49" s="3">
         <v>108200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2659,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>548800</v>
+        <v>529600</v>
       </c>
       <c r="E54" s="3">
-        <v>574000</v>
+        <v>534400</v>
       </c>
       <c r="F54" s="3">
-        <v>597000</v>
+        <v>547300</v>
       </c>
       <c r="G54" s="3">
-        <v>599000</v>
+        <v>572500</v>
       </c>
       <c r="H54" s="3">
-        <v>378000</v>
+        <v>595300</v>
       </c>
       <c r="I54" s="3">
+        <v>597400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>377000</v>
+      </c>
+      <c r="K54" s="3">
         <v>190400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2706,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2748,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22100</v>
+        <v>20000</v>
       </c>
       <c r="E57" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G57" s="3">
         <v>18600</v>
       </c>
-      <c r="F57" s="3">
-        <v>32000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>35800</v>
-      </c>
       <c r="H57" s="3">
+        <v>31900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>35700</v>
+      </c>
+      <c r="J57" s="3">
         <v>24400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>14800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,35 +2791,41 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>16700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>16000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,35 +2838,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41100</v>
+        <v>43500</v>
       </c>
       <c r="E59" s="3">
-        <v>47900</v>
+        <v>41600</v>
       </c>
       <c r="F59" s="3">
-        <v>44000</v>
+        <v>41000</v>
       </c>
       <c r="G59" s="3">
-        <v>49100</v>
+        <v>47800</v>
       </c>
       <c r="H59" s="3">
-        <v>38500</v>
+        <v>43900</v>
       </c>
       <c r="I59" s="3">
+        <v>49000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K59" s="3">
         <v>276600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,35 +2885,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>62300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>66000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>69500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>92500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>100700</v>
+      </c>
+      <c r="J60" s="3">
         <v>66200</v>
       </c>
-      <c r="E60" s="3">
-        <v>69700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>92700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>101000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>66400</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>294200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,35 +2932,41 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F61" s="3">
         <v>6200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6900</v>
       </c>
-      <c r="F61" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I61" s="3">
         <v>8600</v>
       </c>
-      <c r="H61" s="3">
-        <v>21700</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K61" s="3">
         <v>22300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2693,35 +2979,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="E62" s="3">
-        <v>2100</v>
+        <v>7100</v>
       </c>
       <c r="F62" s="3">
-        <v>2600</v>
+        <v>5600</v>
       </c>
       <c r="G62" s="3">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="H62" s="3">
         <v>2600</v>
       </c>
       <c r="I62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3167,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78000</v>
+        <v>76800</v>
       </c>
       <c r="E66" s="3">
-        <v>78600</v>
+        <v>74800</v>
       </c>
       <c r="F66" s="3">
-        <v>103000</v>
+        <v>77800</v>
       </c>
       <c r="G66" s="3">
-        <v>112200</v>
+        <v>78400</v>
       </c>
       <c r="H66" s="3">
-        <v>90700</v>
+        <v>102700</v>
       </c>
       <c r="I66" s="3">
+        <v>111900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K66" s="3">
         <v>318100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3214,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3018,14 +3354,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>44000</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3421,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-319200</v>
+        <v>-333000</v>
       </c>
       <c r="E72" s="3">
-        <v>-315200</v>
+        <v>-324600</v>
       </c>
       <c r="F72" s="3">
-        <v>-310400</v>
+        <v>-318300</v>
       </c>
       <c r="G72" s="3">
-        <v>-313500</v>
+        <v>-314300</v>
       </c>
       <c r="H72" s="3">
-        <v>-222600</v>
+        <v>-309500</v>
       </c>
       <c r="I72" s="3">
+        <v>-312700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-200300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3468,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3609,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>470700</v>
+        <v>452800</v>
       </c>
       <c r="E76" s="3">
-        <v>495400</v>
+        <v>459500</v>
       </c>
       <c r="F76" s="3">
-        <v>493900</v>
+        <v>469400</v>
       </c>
       <c r="G76" s="3">
-        <v>486800</v>
+        <v>494100</v>
       </c>
       <c r="H76" s="3">
-        <v>287400</v>
+        <v>492600</v>
       </c>
       <c r="I76" s="3">
+        <v>485500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>286600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-171800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3656,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-89300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-139100</v>
-      </c>
       <c r="I81" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-138700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-111700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3825,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F83" s="3">
         <v>4000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4400</v>
       </c>
       <c r="G83" s="3">
         <v>3600</v>
       </c>
       <c r="H83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J83" s="3">
         <v>10400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>5300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
-      </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-8800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1200</v>
+        <v>-9900</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-8000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-13500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,72 +4564,84 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>230100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
-        <v>230700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>65400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>18800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-1700</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4160,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-22600</v>
+        <v>5500</v>
       </c>
       <c r="E102" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-21600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
-        <v>222100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-17200</v>
-      </c>
       <c r="I102" s="3">
+        <v>221500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>50800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGRU_QTR_FIN.xlsx
@@ -741,25 +741,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="E8" s="3">
-        <v>24100</v>
+        <v>24200</v>
       </c>
       <c r="F8" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="G8" s="3">
-        <v>25600</v>
+        <v>25700</v>
       </c>
       <c r="H8" s="3">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I8" s="3">
         <v>20900</v>
       </c>
       <c r="J8" s="3">
-        <v>74500</v>
+        <v>74800</v>
       </c>
       <c r="K8" s="3">
         <v>31800</v>
@@ -1010,7 +1010,7 @@
         <v>-1100</v>
       </c>
       <c r="I14" s="3">
-        <v>90900</v>
+        <v>91200</v>
       </c>
       <c r="J14" s="3">
         <v>6100</v>
@@ -1045,7 +1045,7 @@
         <v>4300</v>
       </c>
       <c r="E15" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F15" s="3">
         <v>4000</v>
@@ -1105,25 +1105,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34000</v>
+        <v>34100</v>
       </c>
       <c r="E17" s="3">
         <v>29300</v>
       </c>
       <c r="F17" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="G17" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="H17" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="I17" s="3">
-        <v>117300</v>
+        <v>117700</v>
       </c>
       <c r="J17" s="3">
-        <v>110300</v>
+        <v>110600</v>
       </c>
       <c r="K17" s="3">
         <v>43200</v>
@@ -1152,7 +1152,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="E18" s="3">
         <v>-5100</v>
@@ -1167,10 +1167,10 @@
         <v>-3800</v>
       </c>
       <c r="I18" s="3">
-        <v>-96500</v>
+        <v>-96800</v>
       </c>
       <c r="J18" s="3">
-        <v>-35800</v>
+        <v>-35900</v>
       </c>
       <c r="K18" s="3">
         <v>-11400</v>
@@ -1233,10 +1233,10 @@
         <v>6600</v>
       </c>
       <c r="I20" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="J20" s="3">
-        <v>-103200</v>
+        <v>-103500</v>
       </c>
       <c r="K20" s="3">
         <v>-100100</v>
@@ -1280,10 +1280,10 @@
         <v>7200</v>
       </c>
       <c r="I21" s="3">
-        <v>-85400</v>
+        <v>-85600</v>
       </c>
       <c r="J21" s="3">
-        <v>-128600</v>
+        <v>-129000</v>
       </c>
       <c r="K21" s="3">
         <v>-107800</v>
@@ -1374,10 +1374,10 @@
         <v>2800</v>
       </c>
       <c r="I23" s="3">
-        <v>-89000</v>
+        <v>-89300</v>
       </c>
       <c r="J23" s="3">
-        <v>-139000</v>
+        <v>-139400</v>
       </c>
       <c r="K23" s="3">
         <v>-111500</v>
@@ -1515,10 +1515,10 @@
         <v>2800</v>
       </c>
       <c r="I26" s="3">
-        <v>-89100</v>
+        <v>-89300</v>
       </c>
       <c r="J26" s="3">
-        <v>-138700</v>
+        <v>-139100</v>
       </c>
       <c r="K26" s="3">
         <v>-111700</v>
@@ -1562,10 +1562,10 @@
         <v>2800</v>
       </c>
       <c r="I27" s="3">
-        <v>-89100</v>
+        <v>-89300</v>
       </c>
       <c r="J27" s="3">
-        <v>-138700</v>
+        <v>-139100</v>
       </c>
       <c r="K27" s="3">
         <v>-111700</v>
@@ -1797,10 +1797,10 @@
         <v>-6600</v>
       </c>
       <c r="I32" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="J32" s="3">
-        <v>103200</v>
+        <v>103500</v>
       </c>
       <c r="K32" s="3">
         <v>100100</v>
@@ -1844,10 +1844,10 @@
         <v>2800</v>
       </c>
       <c r="I33" s="3">
-        <v>-89100</v>
+        <v>-89300</v>
       </c>
       <c r="J33" s="3">
-        <v>-138700</v>
+        <v>-139100</v>
       </c>
       <c r="K33" s="3">
         <v>-111700</v>
@@ -1938,10 +1938,10 @@
         <v>2800</v>
       </c>
       <c r="I35" s="3">
-        <v>-89100</v>
+        <v>-89300</v>
       </c>
       <c r="J35" s="3">
-        <v>-138700</v>
+        <v>-139100</v>
       </c>
       <c r="K35" s="3">
         <v>-111700</v>
@@ -2060,25 +2060,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>223400</v>
+        <v>224000</v>
       </c>
       <c r="E41" s="3">
-        <v>217900</v>
+        <v>218500</v>
       </c>
       <c r="F41" s="3">
-        <v>228900</v>
+        <v>229600</v>
       </c>
       <c r="G41" s="3">
-        <v>251400</v>
+        <v>252100</v>
       </c>
       <c r="H41" s="3">
-        <v>272900</v>
+        <v>273700</v>
       </c>
       <c r="I41" s="3">
-        <v>273400</v>
+        <v>274300</v>
       </c>
       <c r="J41" s="3">
-        <v>52000</v>
+        <v>52100</v>
       </c>
       <c r="K41" s="3">
         <v>57800</v>
@@ -2295,25 +2295,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>236200</v>
+        <v>236900</v>
       </c>
       <c r="E46" s="3">
-        <v>231200</v>
+        <v>231900</v>
       </c>
       <c r="F46" s="3">
-        <v>242300</v>
+        <v>243000</v>
       </c>
       <c r="G46" s="3">
-        <v>263800</v>
+        <v>264600</v>
       </c>
       <c r="H46" s="3">
-        <v>287000</v>
+        <v>287900</v>
       </c>
       <c r="I46" s="3">
-        <v>285000</v>
+        <v>285800</v>
       </c>
       <c r="J46" s="3">
-        <v>65100</v>
+        <v>65200</v>
       </c>
       <c r="K46" s="3">
         <v>67300</v>
@@ -2401,7 +2401,7 @@
         <v>11000</v>
       </c>
       <c r="H48" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="I48" s="3">
         <v>12700</v>
@@ -2436,25 +2436,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>282300</v>
+        <v>283100</v>
       </c>
       <c r="E49" s="3">
-        <v>290400</v>
+        <v>291200</v>
       </c>
       <c r="F49" s="3">
-        <v>291200</v>
+        <v>292100</v>
       </c>
       <c r="G49" s="3">
-        <v>295200</v>
+        <v>296100</v>
       </c>
       <c r="H49" s="3">
-        <v>294100</v>
+        <v>294900</v>
       </c>
       <c r="I49" s="3">
-        <v>297100</v>
+        <v>298000</v>
       </c>
       <c r="J49" s="3">
-        <v>296900</v>
+        <v>297800</v>
       </c>
       <c r="K49" s="3">
         <v>108200</v>
@@ -2671,25 +2671,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>529600</v>
+        <v>531200</v>
       </c>
       <c r="E54" s="3">
-        <v>534400</v>
+        <v>536000</v>
       </c>
       <c r="F54" s="3">
-        <v>547300</v>
+        <v>548900</v>
       </c>
       <c r="G54" s="3">
-        <v>572500</v>
+        <v>574200</v>
       </c>
       <c r="H54" s="3">
-        <v>595300</v>
+        <v>597100</v>
       </c>
       <c r="I54" s="3">
-        <v>597400</v>
+        <v>599200</v>
       </c>
       <c r="J54" s="3">
-        <v>377000</v>
+        <v>378100</v>
       </c>
       <c r="K54" s="3">
         <v>190400</v>
@@ -2756,22 +2756,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="E57" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="F57" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="G57" s="3">
         <v>18600</v>
       </c>
       <c r="H57" s="3">
-        <v>31900</v>
+        <v>32000</v>
       </c>
       <c r="I57" s="3">
-        <v>35700</v>
+        <v>35800</v>
       </c>
       <c r="J57" s="3">
         <v>24400</v>
@@ -2806,7 +2806,7 @@
         <v>2800</v>
       </c>
       <c r="E58" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F58" s="3">
         <v>3000</v>
@@ -2850,25 +2850,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43500</v>
+        <v>43700</v>
       </c>
       <c r="E59" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="F59" s="3">
-        <v>41000</v>
+        <v>41100</v>
       </c>
       <c r="G59" s="3">
-        <v>47800</v>
+        <v>47900</v>
       </c>
       <c r="H59" s="3">
-        <v>43900</v>
+        <v>44000</v>
       </c>
       <c r="I59" s="3">
-        <v>49000</v>
+        <v>49100</v>
       </c>
       <c r="J59" s="3">
-        <v>38400</v>
+        <v>38500</v>
       </c>
       <c r="K59" s="3">
         <v>276600</v>
@@ -2897,25 +2897,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>62500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>66200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>69700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>92800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>101000</v>
+      </c>
+      <c r="J60" s="3">
         <v>66400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>62300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>66000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>69500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>92500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>66200</v>
       </c>
       <c r="K60" s="3">
         <v>294200</v>
@@ -2956,13 +2956,13 @@
         <v>6900</v>
       </c>
       <c r="H61" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I61" s="3">
         <v>8600</v>
       </c>
       <c r="J61" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="K61" s="3">
         <v>22300</v>
@@ -2997,10 +2997,10 @@
         <v>7100</v>
       </c>
       <c r="F62" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="G62" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H62" s="3">
         <v>2600</v>
@@ -3179,25 +3179,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76800</v>
+        <v>77000</v>
       </c>
       <c r="E66" s="3">
-        <v>74800</v>
+        <v>75100</v>
       </c>
       <c r="F66" s="3">
-        <v>77800</v>
+        <v>78000</v>
       </c>
       <c r="G66" s="3">
-        <v>78400</v>
+        <v>78600</v>
       </c>
       <c r="H66" s="3">
-        <v>102700</v>
+        <v>103000</v>
       </c>
       <c r="I66" s="3">
-        <v>111900</v>
+        <v>112300</v>
       </c>
       <c r="J66" s="3">
-        <v>90400</v>
+        <v>90700</v>
       </c>
       <c r="K66" s="3">
         <v>318100</v>
@@ -3433,25 +3433,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-333000</v>
+        <v>-334000</v>
       </c>
       <c r="E72" s="3">
-        <v>-324600</v>
+        <v>-325600</v>
       </c>
       <c r="F72" s="3">
-        <v>-318300</v>
+        <v>-319300</v>
       </c>
       <c r="G72" s="3">
-        <v>-314300</v>
+        <v>-315200</v>
       </c>
       <c r="H72" s="3">
-        <v>-309500</v>
+        <v>-310400</v>
       </c>
       <c r="I72" s="3">
-        <v>-312700</v>
+        <v>-313600</v>
       </c>
       <c r="J72" s="3">
-        <v>-222000</v>
+        <v>-222600</v>
       </c>
       <c r="K72" s="3">
         <v>-200300</v>
@@ -3621,25 +3621,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>452800</v>
+        <v>454200</v>
       </c>
       <c r="E76" s="3">
-        <v>459500</v>
+        <v>460900</v>
       </c>
       <c r="F76" s="3">
-        <v>469400</v>
+        <v>470800</v>
       </c>
       <c r="G76" s="3">
-        <v>494100</v>
+        <v>495500</v>
       </c>
       <c r="H76" s="3">
-        <v>492600</v>
+        <v>494000</v>
       </c>
       <c r="I76" s="3">
-        <v>485500</v>
+        <v>486900</v>
       </c>
       <c r="J76" s="3">
-        <v>286600</v>
+        <v>287400</v>
       </c>
       <c r="K76" s="3">
         <v>-171800</v>
@@ -3782,10 +3782,10 @@
         <v>2800</v>
       </c>
       <c r="I81" s="3">
-        <v>-89100</v>
+        <v>-89300</v>
       </c>
       <c r="J81" s="3">
-        <v>-138700</v>
+        <v>-139100</v>
       </c>
       <c r="K81" s="3">
         <v>-111700</v>
@@ -3836,7 +3836,7 @@
         <v>4300</v>
       </c>
       <c r="E83" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F83" s="3">
         <v>4000</v>
@@ -4118,7 +4118,7 @@
         <v>8100</v>
       </c>
       <c r="E89" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="F89" s="3">
         <v>-12300</v>
@@ -4127,7 +4127,7 @@
         <v>-4300</v>
       </c>
       <c r="H89" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I89" s="3">
         <v>-5500</v>
@@ -4334,10 +4334,10 @@
         <v>-5000</v>
       </c>
       <c r="H94" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J94" s="3">
         <v>-8000</v>
@@ -4591,10 +4591,10 @@
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>230100</v>
+        <v>230800</v>
       </c>
       <c r="J100" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="K100" s="3">
         <v>-2500</v>
@@ -4676,7 +4676,7 @@
         <v>-11000</v>
       </c>
       <c r="F102" s="3">
-        <v>-22500</v>
+        <v>-22600</v>
       </c>
       <c r="G102" s="3">
         <v>-21600</v>
@@ -4685,10 +4685,10 @@
         <v>-500</v>
       </c>
       <c r="I102" s="3">
-        <v>221500</v>
+        <v>222100</v>
       </c>
       <c r="J102" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="K102" s="3">
         <v>-11500</v>
